--- a/res/msetest_thai_25.xlsx
+++ b/res/msetest_thai_25.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1101.719691078078</v>
+        <v>1101.71969107791</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.5378600286026</v>
+        <v>16.50033441817651</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9981640.870442282</v>
+        <v>9981640.870446853</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5098.905377859674</v>
+        <v>5098.905377874559</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>167.7131847264473</v>
+        <v>167.7131847245725</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26911137.68456529</v>
+        <v>26911137.68433562</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.988366255557706</v>
+        <v>1.988366255557708</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9570.795881577398</v>
+        <v>9570.795881577404</v>
       </c>
     </row>
     <row r="11">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9476.819960762961</v>
+        <v>9476.819960762952</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.199516347378546</v>
+        <v>0.7741940793718595</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01586183381107518</v>
+        <v>0.01942137731683652</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9013664446572319</v>
+        <v>1.030935261260624</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01633124993226266</v>
+        <v>0.01739538833450718</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35990.1546093434</v>
+        <v>35990.15460923022</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>645.2561532255959</v>
+        <v>650.2645868542827</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>350565217.0552593</v>
+        <v>350565217.0365177</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>185712.8224295408</v>
+        <v>175214.8226370455</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>81555.46829595738</v>
+        <v>80808.30563198758</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30821776820.16312</v>
+        <v>30781676152.91018</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.7275316865904932</v>
+        <v>0.7275316865904939</v>
       </c>
     </row>
     <row r="25">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3785.123608469992</v>
+        <v>3785.123608469989</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7100226467075753</v>
+        <v>0.7100226467075748</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01304453275894354</v>
+        <v>0.01304453275894353</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3748.58508881215</v>
+        <v>3748.585088812148</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9947997103922287</v>
+        <v>0.8186384684541966</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0125557207371147</v>
+        <v>0.01165619169488945</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7833188641861535</v>
+        <v>0.6734476128704446</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01092651812459619</v>
+        <v>0.01043847243578569</v>
       </c>
     </row>
     <row r="34">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.09298642186131739</v>
+        <v>0.06652638069348274</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6486.481868377019</v>
+        <v>6675.764077720934</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.372897151567328</v>
+        <v>2.960025942834124</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.06099683780088953</v>
+        <v>0.06002665629918163</v>
       </c>
     </row>
     <row r="39">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5856068916103159</v>
+        <v>0.5967648023438751</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.01222864202069449</v>
+        <v>0.02946571340099468</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4886.006494823557</v>
+        <v>4863.66971617547</v>
       </c>
     </row>
     <row r="43">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.01188832071699827</v>
+        <v>0.01368964270691804</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>26.32081153050513</v>
+        <v>14.36727565378699</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5.853109978504645</v>
+        <v>9.200681933715055</v>
       </c>
     </row>
     <row r="49">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.01267743592017643</v>
+        <v>0.01047853129480764</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.03537336823135376</v>
+        <v>0.03537336823135129</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>26.20830182689464</v>
+        <v>26.20830182689003</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8.670413553089682</v>
+        <v>8.670413553089622</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0179205953763797</v>
+        <v>0.01792059537637969</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>48227038.69809671</v>
+        <v>48227038.72102559</v>
       </c>
     </row>
     <row r="55">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>341883903.8499846</v>
+        <v>341883903.0945713</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.01555704825288553</v>
+        <v>0.01982061956315294</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>78.22153370355151</v>
+        <v>87.45989435086626</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>151.4813766994362</v>
+        <v>213.6127448828788</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01653421566934487</v>
+        <v>0.01699975027811759</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.02911208515149298</v>
+        <v>0.02911208515149327</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>26.21342208640818</v>
+        <v>26.21342208640771</v>
       </c>
     </row>
     <row r="62">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10.38498293237354</v>
+        <v>10.38498293237319</v>
       </c>
     </row>
     <row r="63">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.04176107288800555</v>
+        <v>0.04176107288800473</v>
       </c>
     </row>
     <row r="64">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>46562633.87717801</v>
+        <v>46562633.90746562</v>
       </c>
     </row>
     <row r="65">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>212270023.7135004</v>
+        <v>212270025.108244</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.5142839044837009</v>
+        <v>0.5148039188497781</v>
       </c>
     </row>
     <row r="67">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.5154138353261032</v>
+        <v>0.5149910913365231</v>
       </c>
     </row>
     <row r="68">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.01023456176598412</v>
+        <v>0.01077003109689171</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.01069201608981342</v>
+        <v>0.01061455877641167</v>
       </c>
     </row>
     <row r="70">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4276.275497911608</v>
+        <v>4276.275497911609</v>
       </c>
     </row>
     <row r="75">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4315.300441781879</v>
+        <v>4315.300441781877</v>
       </c>
     </row>
     <row r="76">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.8456917034989393</v>
+        <v>0.8730603803542444</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.8832927180453118</v>
+        <v>0.8014520792494723</v>
       </c>
     </row>
     <row r="78">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.01792906824888676</v>
+        <v>0.01650507044530855</v>
       </c>
     </row>
     <row r="79">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.01759640771819963</v>
+        <v>0.01735239056592375</v>
       </c>
     </row>
     <row r="80">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.7974725467761709</v>
+        <v>0.7974725467761707</v>
       </c>
     </row>
     <row r="82">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7890.722950254717</v>
+        <v>7890.722950254709</v>
       </c>
     </row>
     <row r="85">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>8185.427444549279</v>
+        <v>8185.427444549284</v>
       </c>
     </row>
     <row r="86">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.5507755209693694</v>
+        <v>0.5243123006247158</v>
       </c>
     </row>
     <row r="87">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.5074223017038474</v>
+        <v>0.532365290780599</v>
       </c>
     </row>
     <row r="88">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.6564044780027944</v>
+        <v>0.6564044780027963</v>
       </c>
     </row>
     <row r="91">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.5229491375241282</v>
+        <v>0.5229491375241281</v>
       </c>
     </row>
     <row r="92">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1394148.530056898</v>
+        <v>1394148.530056586</v>
       </c>
     </row>
     <row r="95">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1242207.864805816</v>
+        <v>1242207.864805819</v>
       </c>
     </row>
     <row r="96">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.7318967356438841</v>
+        <v>0.8639314804057794</v>
       </c>
     </row>
     <row r="97">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.8878174419372976</v>
+        <v>0.6938775654771154</v>
       </c>
     </row>
     <row r="98">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.8242527216766445</v>
+        <v>0.8242527216766448</v>
       </c>
     </row>
     <row r="101">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>809884.2898824282</v>
+        <v>809884.2898824479</v>
       </c>
     </row>
     <row r="105">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1432573.309626662</v>
+        <v>1432573.3096264</v>
       </c>
     </row>
     <row r="106">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.6727031220185087</v>
+        <v>0.8639290053995139</v>
       </c>
     </row>
     <row r="107">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.881179477895893</v>
+        <v>0.6696386831182918</v>
       </c>
     </row>
     <row r="108">
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.8242526945273034</v>
+        <v>0.8242526945273037</v>
       </c>
     </row>
     <row r="111">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7620.972452829986</v>
+        <v>7620.972452829933</v>
       </c>
     </row>
     <row r="115">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>7028.516185143464</v>
+        <v>7028.51618514347</v>
       </c>
     </row>
     <row r="116">
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.9736822864887132</v>
+        <v>0.9415811887921495</v>
       </c>
     </row>
     <row r="117">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.02183672185002504</v>
+        <v>0.01535077065020322</v>
       </c>
     </row>
     <row r="118">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.7154420946690366</v>
+        <v>0.9850998564439555</v>
       </c>
     </row>
     <row r="119">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.03052236857853476</v>
+        <v>0.01911127630413923</v>
       </c>
     </row>
     <row r="120">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.116963338347343</v>
+        <v>1.077352350037336</v>
       </c>
     </row>
     <row r="121">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.02135365804328124</v>
+        <v>0.02213519130350525</v>
       </c>
     </row>
     <row r="122">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5026.964155470257</v>
+        <v>5079.146816273959</v>
       </c>
     </row>
     <row r="123">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.6809568077958792</v>
+        <v>0.6329081018208389</v>
       </c>
     </row>
     <row r="124">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.01412200066652365</v>
+        <v>0.0144537314725022</v>
       </c>
     </row>
     <row r="125">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6493.573292257782</v>
+        <v>6676.846749475254</v>
       </c>
     </row>
     <row r="126">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.8607754459791134</v>
+        <v>0.8625727873660767</v>
       </c>
     </row>
     <row r="127">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.01618077796294817</v>
+        <v>0.01718549974873273</v>
       </c>
     </row>
     <row r="128">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6400.599651581238</v>
+        <v>6344.231895294703</v>
       </c>
     </row>
     <row r="129">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.9257040759557139</v>
+        <v>0.8897060289691914</v>
       </c>
     </row>
     <row r="130">
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.01538453896650029</v>
+        <v>0.01617188602269905</v>
       </c>
     </row>
     <row r="131">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6264.991489228347</v>
+        <v>6501.158311649955</v>
       </c>
     </row>
     <row r="132">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.067259064204403</v>
+        <v>0.9162146816014356</v>
       </c>
     </row>
     <row r="133">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.02164959181818298</v>
+        <v>0.02234884021828088</v>
       </c>
     </row>
     <row r="134">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1.212243275630583</v>
+        <v>1.220338303785464</v>
       </c>
     </row>
     <row r="135">
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.03774578744241999</v>
+        <v>0.02447613228335998</v>
       </c>
     </row>
     <row r="136">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1.416692562032818</v>
+        <v>1.33079603528621</v>
       </c>
     </row>
     <row r="137">
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.01841651828114209</v>
+        <v>0.01800666967449917</v>
       </c>
     </row>
     <row r="138">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>7367.001650706547</v>
+        <v>7348.261531580207</v>
       </c>
     </row>
     <row r="139">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1.086114587782916</v>
+        <v>1.093564845650243</v>
       </c>
     </row>
     <row r="140">
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.02661883879325989</v>
+        <v>0.02534778834317109</v>
       </c>
     </row>
     <row r="141">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>7454.946608096597</v>
+        <v>7479.059057970027</v>
       </c>
     </row>
     <row r="142">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1.046599062199146</v>
+        <v>1.077161194326148</v>
       </c>
     </row>
     <row r="143">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.02018755036072131</v>
+        <v>0.01947425138547508</v>
       </c>
     </row>
     <row r="144">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7880.46882000675</v>
+        <v>8318.398976607101</v>
       </c>
     </row>
     <row r="145">
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1.084683569526536</v>
+        <v>1.10995726851603</v>
       </c>
     </row>
     <row r="146">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.02037752883372526</v>
+        <v>0.02062317677837518</v>
       </c>
     </row>
     <row r="147">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>8023.229262414769</v>
+        <v>8132.376455300657</v>
       </c>
     </row>
   </sheetData>
